--- a/数据整理/stocks/A股/上证主板/600050-中国联通.xlsx
+++ b/数据整理/stocks/A股/上证主板/600050-中国联通.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001638</t>
+          <t>159811</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源优势蓝筹股票C</t>
+          <t>博时中证5G产业50ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>93.23</t>
+          <t>6.18</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.91</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>6</v>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1984</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001162</t>
+          <t>510160</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源优势蓝筹股票A</t>
+          <t>南方中证南方小康产业ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.23</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.91</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
+          <t>98.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1807</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>159811</t>
+          <t>001162</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>博时中证5G产业50ETF</t>
+          <t>前海开源优势蓝筹股票A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>98.81</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0741</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>510160</t>
+          <t>002561</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>南方中证南方小康产业ETF</t>
+          <t>东吴安鑫量化灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>98.43</t>
+          <t>4.15</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.45</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
+          <t>29.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002561</t>
+          <t>004099</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>东吴安鑫量化灵活配置混合</t>
+          <t>前海开源沪港深景气行业精选灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>29.93</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004099</t>
+          <t>001638</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>前海开源沪港深景气行业精选灵活配置混合</t>
+          <t>前海开源优势蓝筹股票C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>92.72</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>2</v>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -665,7 +735,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,15 +756,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -716,15 +796,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>150.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>93.13</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.97</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.4600</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -734,26 +824,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010687</t>
+          <t>159811</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>工银瑞信文体产业股票C</t>
+          <t>博时中证5G产业50ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.13</t>
+          <t>4.94</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>99.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1744</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -762,26 +862,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005035</t>
+          <t>510160</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>银华信息科技量化优选股票A</t>
+          <t>南方中证南方小康产业ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>92.44</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.96</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>99.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1438</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -790,26 +900,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005036</t>
+          <t>161611</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>银华信息科技量化优选股票C</t>
+          <t>融通内需驱动混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>92.44</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.96</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>73.22</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0828</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -828,15 +948,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>92.86</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1.65</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0747</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>10</v>
       </c>
     </row>
@@ -846,26 +976,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>350006</t>
+          <t>010687</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>天治稳健双盈债券</t>
+          <t>工银瑞信文体产业股票C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>22.47</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0636</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -884,15 +1024,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>92.83</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>4.51</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>6</v>
       </c>
     </row>
@@ -902,26 +1052,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001638</t>
+          <t>002295</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>前海开源优势蓝筹股票C</t>
+          <t>广发稳安灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>92.83</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.51</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>6</v>
+          <t>34.41</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>510160</t>
+          <t>350006</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>南方中证南方小康产业ETF</t>
+          <t>天治稳健双盈债券</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>99.06</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>4</v>
+          <t>22.47</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>159811</t>
+          <t>005035</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>博时中证5G产业50ETF</t>
+          <t>银华信息科技量化优选股票A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>99.26</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.53</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>9</v>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>002295</t>
+          <t>001638</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>广发稳安灵活配置混合A</t>
+          <t>前海开源优势蓝筹股票C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>34.41</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.37</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>10</v>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -1014,25 +1204,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>008604</t>
+          <t>005036</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>广发稳安灵活配置混合C</t>
+          <t>银华信息科技量化优选股票C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>34.41</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.37</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>161611</t>
+          <t>008604</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>融通内需驱动混合</t>
+          <t>广发稳安灵活配置混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>73.22</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>7</v>
+          <t>34.41</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600050-中国联通.xlsx
+++ b/数据整理/stocks/A股/上证主板/600050-中国联通.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1277,4 +1278,1010 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001714</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信文体产业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>183.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.1888</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006879</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安智能生活混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.60</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8422</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>162209</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰达宏利市值优选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>72.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6481</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007460</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安成长创新混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2886</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>510160</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方中证南方小康产业ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2764</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>320011</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺安中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2274</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159811</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时中证5G产业50ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1969</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005270</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>太平改革红利精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.19</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1873</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002813</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时颐泰混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>20.94</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1447</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010687</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银瑞信文体产业股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.94</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1358</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160919</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成产业升级股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1231</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010896</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>太平价值增长股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>73.60</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1198</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000368</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富沪深300安中指数</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1039</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010897</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>太平价值增长股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>73.60</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1018</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001528</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>诺安先进制造股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0891</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>320015</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>诺安行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0867</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006429</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>诺安恒鑫混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0729</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001162</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>前海开源优势蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>160137</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方中证互联网指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003659</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>山西证券策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>71.31</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>350006</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>天治稳健双盈债券</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>23.12</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004099</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>前海开源沪港深景气行业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001638</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>前海开源优势蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002908</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富国睿利定期开放混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>28.14</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002814</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时颐泰混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>20.94</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600050-中国联通.xlsx
+++ b/数据整理/stocks/A股/上证主板/600050-中国联通.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2284,4 +2285,820 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000242</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城策略精选</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4877</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>510160</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方中证南方小康产业ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2373</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161611</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>融通内需驱动混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>63.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2229</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>320011</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺安中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.80</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2164</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159811</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时中证5G产业50ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1617</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160919</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成产业升级股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1431</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001528</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺安先进制造股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0931</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002252</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>融通成长30灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>54.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0733</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>320015</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>诺安行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0663</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006429</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>诺安恒鑫混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.44</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0435</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001162</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源优势蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160137</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方中证互联网指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005328</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>前海开源价值策略股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.40</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>585001</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东吴中证新兴</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006698</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>红土创新沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005035</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银华信息科技量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>350006</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>天治稳健双盈债券</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001638</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>前海开源优势蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006699</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>红土创新沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005036</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>银华信息科技量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600050-中国联通.xlsx
+++ b/数据整理/stocks/A股/上证主板/600050-中国联通.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3101,4 +3102,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>25</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.960000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600050-中国联通.xlsx
+++ b/数据整理/stocks/A股/上证主板/600050-中国联通.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3110,7 +3111,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3121,17 +3122,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3141,14 +3162,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.88</v>
+          <t>320011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2070</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -3157,14 +3200,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>25</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8.960000000000001</v>
+          <t>510160</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方中证南方小康产业ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1971</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -3173,14 +3238,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>13</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.1</v>
+          <t>159811</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时中证5G产业50ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1163</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -3189,13 +3276,493 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>011132</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏扬沪深300质量成长低波动指数证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1003</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005870</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华沪深300指数增强</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0932</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001528</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺安先进制造股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0890</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>320015</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺安行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0637</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006429</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>诺安恒鑫混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011133</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏扬沪深300质量成长低波动指数证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>95.52</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001162</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>前海开源优势蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001190</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华弘润灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>20.63</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001638</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源优势蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001191</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华弘润灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>20.63</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>25</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.960000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.51</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600050-中国联通.xlsx
+++ b/数据整理/stocks/A股/上证主板/600050-中国联通.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3661,7 +3662,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3672,17 +3673,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3692,14 +3713,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
+          <t>320011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1883</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -3708,14 +3751,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>20</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.88</v>
+          <t>004350</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇丰晋信价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1856</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -3724,14 +3789,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>25</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8.960000000000001</v>
+          <t>510160</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方中证南方小康产业ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1768</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -3740,14 +3827,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>13</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5.1</v>
+          <t>159811</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时中证5G产业50ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>97.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1290</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -3756,13 +3865,585 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>001528</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺安先进制造股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.44</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1286</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011132</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏扬沪深300质量成长低波动指数证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0792</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005870</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华沪深300指数增强</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0780</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>320015</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>诺安行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.68</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006429</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>诺安恒鑫混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011243</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>万家惠裕回报6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>23.04</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012377</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长盛安睿一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>29.09</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011133</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏扬沪深300质量成长低波动指数证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005035</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银华信息科技量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012378</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长盛安睿一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>29.09</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011244</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>万家惠裕回报6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>23.04</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005036</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银华信息科技量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>20</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>25</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.960000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>13</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>6</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.51</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600050-中国联通.xlsx
+++ b/数据整理/stocks/A股/上证主板/600050-中国联通.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4326,7 +4327,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4337,17 +4338,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4357,14 +4378,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.17</v>
+          <t>510160</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方中证南方小康产业ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1850</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -4373,14 +4416,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
+          <t>006022</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国大盘价值量化精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1205</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -4389,14 +4454,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>20</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.88</v>
+          <t>159811</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时中证5G产业50ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1150</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -4405,14 +4492,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>25</v>
-      </c>
-      <c r="D5" t="n">
-        <v>8.960000000000001</v>
+          <t>005870</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华沪深300指数增强</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1104</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -4421,14 +4530,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>13</v>
-      </c>
-      <c r="D6" t="n">
-        <v>5.1</v>
+          <t>006429</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺安恒鑫混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.57</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -4437,13 +4568,411 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>001362</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城领先回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>20.42</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005325</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城泰恒回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>20.03</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001379</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城领先回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>20.42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>517360</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安中证沪港深科技100交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005326</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>景顺长城泰恒回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>20.03</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>585001</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东吴中证新兴</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014181</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国大盘价值量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>20</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>25</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8.960000000000001</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>13</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>6</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.51</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600050-中国联通.xlsx
+++ b/数据整理/stocks/A股/上证主板/600050-中国联通.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D2" t="n">
-        <v>0.67</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>1.17</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>1.88</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D6" t="n">
-        <v>8.960000000000001</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D7" t="n">
-        <v>5.1</v>
+        <v>8.960000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>13</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>6</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.51</v>
       </c>
     </row>
@@ -600,6 +617,1048 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000311</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0145</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>510160</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方中证南方小康产业ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1814</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>320011</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺安中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>73.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1700</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160919</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成产业升级股票（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1225</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159811</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时中证5G产业50ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1112</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>320015</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺安行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>73.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0532</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009840</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>西藏东财量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>517960</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>上投摩根中证沪港深科技100ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>512220</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城中证科技传媒通信150ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.48</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006429</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>诺安恒鑫混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>70.94</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009841</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>西藏东财量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005326</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>景顺长城泰恒回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>20.68</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003015</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中金沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>517360</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安中证沪港深科技100ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>517090</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰富时中国国企开放共赢ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>585001</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东吴中证新兴</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>510990</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>工银瑞信中证180ESGETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>97.85</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010307</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.91</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005035</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>银华信息科技量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003579</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中金沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005325</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>景顺长城泰恒回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>20.68</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014649</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>永赢优质精选混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>80.97</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010308</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>84.91</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>015679</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>景顺长城沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005036</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>银华信息科技量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014650</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>永赢优质精选混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>80.97</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1111,7 +2170,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1775,7 +2834,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2325,7 +3384,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3141,7 +4200,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4147,7 +5206,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4697,7 +5756,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600050-中国联通.xlsx
+++ b/数据整理/stocks/A股/上证主板/600050-中国联通.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="D2" t="n">
-        <v>1.97</v>
+        <v>5.45</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D3" t="n">
-        <v>0.67</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>1.17</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D6" t="n">
-        <v>1.88</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D7" t="n">
-        <v>8.960000000000001</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D8" t="n">
-        <v>5.1</v>
+        <v>8.960000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>13</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>6</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.51</v>
       </c>
     </row>
@@ -616,7 +633,2317 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159811</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时中证5G产业50ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1984</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>510160</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方中证南方小康产业ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1807</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001162</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源优势蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0741</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002561</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东吴安鑫量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>29.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004099</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源沪港深景气行业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001638</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源优势蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002121</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8127</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>210008</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金鹰策略配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5050</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>020010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰金牛创新混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4479</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000242</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城策略精选A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.70</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4259</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160716</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3317</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>015294</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>金鹰时代领航一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3043</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>320011</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺安中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.80</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2540</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001345</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>18.50</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>28.01</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2128</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007835</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰鑫睿混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.19</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2019</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>160919</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成产业升级股票（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.93</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1640</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>510160</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方中证南方小康产业ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.44</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1595</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159811</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时中证5G产业50ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.32</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1338</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>015293</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>金鹰时代领航一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1325</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>550001</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>信诚四季红混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>82.79</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1311</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>320015</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>诺安行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.99</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1016</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001528</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>诺安先进制造股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1009</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011743</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏兴源稳健一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>22.90</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0983</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519644</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>银河智联主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0674</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>517960</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>上投摩根中证沪港深科技100ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>96.15</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0626</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000368</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇添富沪深300安中指数</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0620</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>512220</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>景顺长城中证科技传媒通信150ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>080005</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长盛量化红利混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>72.88</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001347</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>28.01</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>014806</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国金量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>81.70</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>510130</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>易方达上证中盘ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>99.08</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>013144</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国安诚回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>20.90</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>512750</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>99.55</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011132</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏扬沪深300质量成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005137</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>长信沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>007448</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>长信沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010843</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>富国天润回报混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>20.82</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>013143</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>富国安诚回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>20.90</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011744</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华夏兴源稳健一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>22.90</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011284</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中信保诚龙腾精选混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>83.70</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>160725</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>517090</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国泰富时中国国企开放共赢ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>517360</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华安中证沪港深科技100ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>96.98</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011133</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>鹏扬沪深300质量成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>000841</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>富国新回报灵活配置混合 - A/B</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010024</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>88.97</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>006209</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中信保诚新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>81.42</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005128</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华夏永康添福混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>23.69</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001613</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>长城久祥灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>014805</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>国金量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>81.70</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>008884</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>博远博锐混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>73.80</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010844</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>富国天润回报混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>20.82</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>000843</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>富国新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>008885</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>博远博锐混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>73.80</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>290010</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>泰信中证200指数基金</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>017167</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>景顺长城策略精选C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>015067</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华夏永康添福混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>23.69</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>017462</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>长城久祥灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1658,7 +3985,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2170,7 +4497,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2834,7 +5161,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3384,7 +5711,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4200,7 +6527,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5206,7 +7533,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5754,288 +8081,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>159811</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>博时中证5G产业50ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>6.18</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>98.81</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1984</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>510160</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>南方中证南方小康产业ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>98.43</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.45</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1807</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001162</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>前海开源优势蓝筹股票A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.23</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.91</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0741</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>002561</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>东吴安鑫量化灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>29.93</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0266</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>004099</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>前海开源沪港深景气行业精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.72</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0217</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001638</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>前海开源优势蓝筹股票C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.23</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.91</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0079</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>